--- a/Documents/Acompanhamento Day Trade 2019.xlsx
+++ b/Documents/Acompanhamento Day Trade 2019.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="20730" windowHeight="11385"/>
@@ -11,7 +11,7 @@
     <sheet name="Acompanhamento Consolidado" sheetId="3" r:id="rId2"/>
     <sheet name="Acompanhamento Gráfico" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -177,13 +177,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,13 +716,27 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:style val="7"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -740,11 +754,15 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -878,18 +896,29 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="98319360"/>
-        <c:axId val="98333440"/>
+        <c:smooth val="0"/>
+        <c:axId val="194828544"/>
+        <c:axId val="194711552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98319360"/>
+        <c:axId val="194828544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd/mm/yy;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr rot="-5400000" vert="horz"/>
@@ -901,34 +930,39 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98333440"/>
+        <c:crossAx val="194711552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98333440"/>
+        <c:axId val="194711552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="98319360"/>
+        <c:crossAx val="194828544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -941,6 +975,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -952,8 +988,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:style val="7"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -979,12 +1024,15 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1012,8 +1060,11 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:trendline>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
@@ -1034,11 +1085,21 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="130969984"/>
-        <c:axId val="130971520"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="194751872"/>
+        <c:axId val="194765952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1072,6 +1133,8 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
@@ -1093,18 +1156,29 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="130987136"/>
-        <c:axId val="130973056"/>
+        <c:smooth val="0"/>
+        <c:axId val="195494272"/>
+        <c:axId val="194767488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130969984"/>
+        <c:axId val="194751872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd/mm/yy;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr rot="-5400000" vert="horz"/>
@@ -1116,61 +1190,71 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130971520"/>
+        <c:crossAx val="194765952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130971520"/>
+        <c:axId val="194765952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="130969984"/>
+        <c:crossAx val="194751872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130973056"/>
+        <c:axId val="194767488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130987136"/>
+        <c:crossAx val="195494272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="130987136"/>
+        <c:axId val="195494272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd/mm/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="130973056"/>
+        <c:crossAx val="194767488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1184,6 +1268,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1333,6 +1418,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1367,6 +1453,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -1542,17 +1629,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan10"/>
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I51" sqref="I51"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="38" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="39" customWidth="1"/>
@@ -1569,7 +1656,7 @@
     <col min="31" max="16384" width="2.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1590,7 +1677,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:23" s="20" customFormat="1" ht="45">
+    <row r="2" spans="1:23" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="29" customFormat="1">
+    <row r="3" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
@@ -1676,7 +1763,7 @@
       <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
     </row>
-    <row r="4" spans="1:23" s="29" customFormat="1">
+    <row r="4" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="22"/>
       <c r="C4" s="47"/>
@@ -1701,7 +1788,7 @@
       <c r="V4" s="51"/>
       <c r="W4" s="52"/>
     </row>
-    <row r="5" spans="1:23" s="60" customFormat="1">
+    <row r="5" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53"/>
       <c r="B5" s="134">
         <v>43605</v>
@@ -1760,7 +1847,7 @@
       <c r="U5" s="128"/>
       <c r="W5" s="64"/>
     </row>
-    <row r="6" spans="1:23" s="60" customFormat="1">
+    <row r="6" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
       <c r="B6" s="134">
         <v>43606</v>
@@ -1794,11 +1881,11 @@
         <v>0</v>
       </c>
       <c r="L6" s="54">
-        <f>SUM(G6:K6)</f>
+        <f t="shared" ref="L6:L13" si="1">SUM(G6:K6)</f>
         <v>1.5</v>
       </c>
       <c r="M6" s="138">
-        <f t="shared" ref="M6:M24" si="1">C6-L6</f>
+        <f t="shared" ref="M6:M24" si="2">C6-L6</f>
         <v>1.5</v>
       </c>
       <c r="N6" s="122">
@@ -1819,7 +1906,7 @@
       <c r="U6" s="63"/>
       <c r="W6" s="64"/>
     </row>
-    <row r="7" spans="1:23" s="60" customFormat="1">
+    <row r="7" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53"/>
       <c r="B7" s="134">
         <v>43607</v>
@@ -1853,15 +1940,15 @@
         <v>0</v>
       </c>
       <c r="L7" s="54">
-        <f>SUM(G7:K7)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="M7" s="138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
       <c r="N7" s="122">
-        <f t="shared" ref="N7:N24" si="2">F7/M7</f>
+        <f t="shared" ref="N7:N24" si="3">F7/M7</f>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="O7" s="58">
@@ -1878,7 +1965,7 @@
       <c r="U7" s="63"/>
       <c r="W7" s="64"/>
     </row>
-    <row r="8" spans="1:23" s="60" customFormat="1">
+    <row r="8" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
       <c r="B8" s="141">
         <v>43612</v>
@@ -1912,11 +1999,11 @@
         <v>0</v>
       </c>
       <c r="L8" s="142">
-        <f>SUM(G8:K8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M8" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="N8" s="57">
@@ -1937,7 +2024,7 @@
       <c r="U8" s="63"/>
       <c r="W8" s="64"/>
     </row>
-    <row r="9" spans="1:23" s="60" customFormat="1">
+    <row r="9" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53"/>
       <c r="B9" s="141">
         <v>43613</v>
@@ -1971,15 +2058,15 @@
         <v>0</v>
       </c>
       <c r="L9" s="142">
-        <f>SUM(G9:K9)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M9" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-33</v>
       </c>
       <c r="N9" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.12121212121212122</v>
       </c>
       <c r="O9" s="58">
@@ -1996,7 +2083,7 @@
       <c r="U9" s="63"/>
       <c r="W9" s="64"/>
     </row>
-    <row r="10" spans="1:23" s="60" customFormat="1">
+    <row r="10" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
       <c r="B10" s="134">
         <v>43614</v>
@@ -2030,15 +2117,15 @@
         <v>0</v>
       </c>
       <c r="L10" s="54">
-        <f>SUM(G10:K10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M10" s="138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="N10" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="O10" s="58">
@@ -2055,7 +2142,7 @@
       <c r="U10" s="63"/>
       <c r="W10" s="64"/>
     </row>
-    <row r="11" spans="1:23" s="60" customFormat="1">
+    <row r="11" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="141">
         <v>43616</v>
@@ -2089,19 +2176,19 @@
         <v>0</v>
       </c>
       <c r="L11" s="142">
-        <f>SUM(G11:K11)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="M11" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-41.5</v>
       </c>
       <c r="N11" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.2289156626506021E-2</v>
       </c>
       <c r="O11" s="58">
-        <f t="shared" ref="O11:O38" si="3">C11/M11</f>
+        <f t="shared" ref="O11:O38" si="4">C11/M11</f>
         <v>0.96385542168674698</v>
       </c>
       <c r="P11" s="59"/>
@@ -2114,7 +2201,7 @@
       <c r="U11" s="63"/>
       <c r="W11" s="64"/>
     </row>
-    <row r="12" spans="1:23" s="60" customFormat="1">
+    <row r="12" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
       <c r="B12" s="134">
         <v>43619</v>
@@ -2148,19 +2235,19 @@
         <v>0</v>
       </c>
       <c r="L12" s="54">
-        <f>SUM(G12:K12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M12" s="138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N12" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="O12" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="P12" s="59"/>
@@ -2173,7 +2260,7 @@
       <c r="U12" s="63"/>
       <c r="W12" s="64"/>
     </row>
-    <row r="13" spans="1:23" s="60" customFormat="1">
+    <row r="13" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
       <c r="B13" s="134">
         <v>43620</v>
@@ -2207,19 +2294,19 @@
         <v>0</v>
       </c>
       <c r="L13" s="54">
-        <f>SUM(G13:K13)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="M13" s="138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
       <c r="N13" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="O13" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0285714285714285</v>
       </c>
       <c r="P13" s="59"/>
@@ -2232,7 +2319,7 @@
       <c r="U13" s="63"/>
       <c r="W13" s="64"/>
     </row>
-    <row r="14" spans="1:23" s="60" customFormat="1">
+    <row r="14" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="134">
         <v>43621</v>
@@ -2256,19 +2343,19 @@
       <c r="J14" s="137"/>
       <c r="K14" s="137"/>
       <c r="L14" s="54">
-        <f t="shared" ref="L11:L21" si="4">SUM(G14:J14)</f>
+        <f t="shared" ref="L14:L21" si="5">SUM(G14:J14)</f>
         <v>0</v>
       </c>
       <c r="M14" s="138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="N14" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
       <c r="O14" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P14" s="59"/>
@@ -2279,7 +2366,7 @@
       <c r="U14" s="63"/>
       <c r="W14" s="64"/>
     </row>
-    <row r="15" spans="1:23" s="60" customFormat="1">
+    <row r="15" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="129"/>
       <c r="C15" s="132"/>
@@ -2294,19 +2381,19 @@
       <c r="J15" s="130"/>
       <c r="K15" s="130"/>
       <c r="L15" s="132">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="131">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="57" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="58" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="131">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" s="58" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P15" s="59"/>
@@ -2317,7 +2404,7 @@
       <c r="U15" s="63"/>
       <c r="W15" s="64"/>
     </row>
-    <row r="16" spans="1:23" s="60" customFormat="1">
+    <row r="16" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="129"/>
       <c r="C16" s="132"/>
@@ -2332,19 +2419,19 @@
       <c r="J16" s="130"/>
       <c r="K16" s="130"/>
       <c r="L16" s="132">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="131">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="57" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="58" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="131">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="58" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P16" s="59"/>
@@ -2355,7 +2442,7 @@
       <c r="U16" s="63"/>
       <c r="W16" s="64"/>
     </row>
-    <row r="17" spans="1:23" s="60" customFormat="1">
+    <row r="17" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
       <c r="B17" s="129"/>
       <c r="C17" s="132"/>
@@ -2370,19 +2457,19 @@
       <c r="J17" s="130"/>
       <c r="K17" s="130"/>
       <c r="L17" s="132">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="131">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="57" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="58" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="131">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="58" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P17" s="59"/>
@@ -2393,7 +2480,7 @@
       <c r="U17" s="63"/>
       <c r="W17" s="64"/>
     </row>
-    <row r="18" spans="1:23" s="60" customFormat="1">
+    <row r="18" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
       <c r="B18" s="129"/>
       <c r="C18" s="132"/>
@@ -2408,19 +2495,19 @@
       <c r="J18" s="130"/>
       <c r="K18" s="130"/>
       <c r="L18" s="132">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="131">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="57" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="58" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="131">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="58" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P18" s="59"/>
@@ -2431,7 +2518,7 @@
       <c r="U18" s="63"/>
       <c r="W18" s="64"/>
     </row>
-    <row r="19" spans="1:23" s="60" customFormat="1">
+    <row r="19" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="129"/>
       <c r="C19" s="132"/>
@@ -2446,19 +2533,19 @@
       <c r="J19" s="130"/>
       <c r="K19" s="130"/>
       <c r="L19" s="132">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="131">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="57" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="58" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="131">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="58" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" s="59"/>
@@ -2469,7 +2556,7 @@
       <c r="U19" s="63"/>
       <c r="W19" s="64"/>
     </row>
-    <row r="20" spans="1:23" s="60" customFormat="1">
+    <row r="20" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53"/>
       <c r="B20" s="129"/>
       <c r="C20" s="132"/>
@@ -2484,19 +2571,19 @@
       <c r="J20" s="130"/>
       <c r="K20" s="130"/>
       <c r="L20" s="132">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="131">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="57" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="58" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="131">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="58" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" s="59"/>
@@ -2507,7 +2594,7 @@
       <c r="U20" s="63"/>
       <c r="W20" s="64"/>
     </row>
-    <row r="21" spans="1:23" s="60" customFormat="1">
+    <row r="21" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
       <c r="B21" s="129"/>
       <c r="C21" s="132"/>
@@ -2522,19 +2609,19 @@
       <c r="J21" s="130"/>
       <c r="K21" s="130"/>
       <c r="L21" s="132">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="131">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="57" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" s="58" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="131">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="58" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="59"/>
@@ -2545,7 +2632,7 @@
       <c r="U21" s="63"/>
       <c r="W21" s="64"/>
     </row>
-    <row r="22" spans="1:23" s="60" customFormat="1">
+    <row r="22" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53"/>
       <c r="B22" s="129"/>
       <c r="C22" s="132"/>
@@ -2560,19 +2647,19 @@
       <c r="J22" s="130"/>
       <c r="K22" s="130"/>
       <c r="L22" s="132">
-        <f t="shared" ref="L22:L38" si="5">SUM(G22:K22)</f>
+        <f t="shared" ref="L22:L38" si="6">SUM(G22:K22)</f>
         <v>0</v>
       </c>
       <c r="M22" s="131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N22" s="57" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" s="59"/>
@@ -2583,7 +2670,7 @@
       <c r="U22" s="63"/>
       <c r="W22" s="64"/>
     </row>
-    <row r="23" spans="1:23" s="60" customFormat="1">
+    <row r="23" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
       <c r="B23" s="129"/>
       <c r="C23" s="132"/>
@@ -2598,19 +2685,19 @@
       <c r="J23" s="130"/>
       <c r="K23" s="130"/>
       <c r="L23" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M23" s="131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N23" s="57" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="59"/>
@@ -2621,7 +2708,7 @@
       <c r="U23" s="63"/>
       <c r="W23" s="64"/>
     </row>
-    <row r="24" spans="1:23" s="60" customFormat="1">
+    <row r="24" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
       <c r="B24" s="129"/>
       <c r="C24" s="132"/>
@@ -2636,19 +2723,19 @@
       <c r="J24" s="130"/>
       <c r="K24" s="130"/>
       <c r="L24" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M24" s="131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N24" s="57" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="59"/>
@@ -2659,7 +2746,7 @@
       <c r="U24" s="63"/>
       <c r="W24" s="64"/>
     </row>
-    <row r="25" spans="1:23" s="60" customFormat="1">
+    <row r="25" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="129"/>
       <c r="C25" s="132"/>
@@ -2674,19 +2761,19 @@
       <c r="J25" s="130"/>
       <c r="K25" s="130"/>
       <c r="L25" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M25" s="131">
-        <f t="shared" ref="M25:M33" si="6">C25-L25</f>
+        <f t="shared" ref="M25:M33" si="7">C25-L25</f>
         <v>0</v>
       </c>
       <c r="N25" s="57" t="e">
-        <f t="shared" ref="N25:N38" si="7">F25/M25</f>
+        <f t="shared" ref="N25:N38" si="8">F25/M25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="59"/>
@@ -2697,7 +2784,7 @@
       <c r="U25" s="63"/>
       <c r="W25" s="64"/>
     </row>
-    <row r="26" spans="1:23" s="60" customFormat="1">
+    <row r="26" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
       <c r="B26" s="129"/>
       <c r="C26" s="132"/>
@@ -2712,19 +2799,19 @@
       <c r="J26" s="130"/>
       <c r="K26" s="130"/>
       <c r="L26" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M26" s="131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N26" s="57" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="59"/>
@@ -2735,7 +2822,7 @@
       <c r="U26" s="63"/>
       <c r="W26" s="64"/>
     </row>
-    <row r="27" spans="1:23" s="60" customFormat="1">
+    <row r="27" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
       <c r="B27" s="129"/>
       <c r="C27" s="132"/>
@@ -2750,19 +2837,19 @@
       <c r="J27" s="130"/>
       <c r="K27" s="130"/>
       <c r="L27" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M27" s="131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N27" s="57" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="59"/>
@@ -2773,7 +2860,7 @@
       <c r="U27" s="63"/>
       <c r="W27" s="64"/>
     </row>
-    <row r="28" spans="1:23" s="60" customFormat="1">
+    <row r="28" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
       <c r="B28" s="129"/>
       <c r="C28" s="132"/>
@@ -2788,19 +2875,19 @@
       <c r="J28" s="130"/>
       <c r="K28" s="130"/>
       <c r="L28" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M28" s="131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N28" s="57" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="59"/>
@@ -2811,7 +2898,7 @@
       <c r="U28" s="63"/>
       <c r="W28" s="64"/>
     </row>
-    <row r="29" spans="1:23" s="60" customFormat="1">
+    <row r="29" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
       <c r="B29" s="129"/>
       <c r="C29" s="132"/>
@@ -2826,19 +2913,19 @@
       <c r="J29" s="130"/>
       <c r="K29" s="130"/>
       <c r="L29" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M29" s="131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N29" s="57" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="59"/>
@@ -2849,7 +2936,7 @@
       <c r="U29" s="63"/>
       <c r="W29" s="64"/>
     </row>
-    <row r="30" spans="1:23" s="60" customFormat="1">
+    <row r="30" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
       <c r="B30" s="129"/>
       <c r="C30" s="132"/>
@@ -2864,19 +2951,19 @@
       <c r="J30" s="130"/>
       <c r="K30" s="130"/>
       <c r="L30" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M30" s="131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N30" s="57" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="59"/>
@@ -2887,7 +2974,7 @@
       <c r="U30" s="63"/>
       <c r="W30" s="64"/>
     </row>
-    <row r="31" spans="1:23" s="60" customFormat="1">
+    <row r="31" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
       <c r="B31" s="129"/>
       <c r="C31" s="132"/>
@@ -2902,19 +2989,19 @@
       <c r="J31" s="130"/>
       <c r="K31" s="130"/>
       <c r="L31" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M31" s="131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N31" s="57" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="59"/>
@@ -2925,7 +3012,7 @@
       <c r="U31" s="63"/>
       <c r="W31" s="64"/>
     </row>
-    <row r="32" spans="1:23" s="60" customFormat="1">
+    <row r="32" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="129"/>
       <c r="C32" s="132"/>
@@ -2940,19 +3027,19 @@
       <c r="J32" s="130"/>
       <c r="K32" s="130"/>
       <c r="L32" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M32" s="131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N32" s="57" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="59"/>
@@ -2963,7 +3050,7 @@
       <c r="U32" s="63"/>
       <c r="W32" s="64"/>
     </row>
-    <row r="33" spans="1:23" s="60" customFormat="1">
+    <row r="33" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="129"/>
       <c r="C33" s="132"/>
@@ -2978,19 +3065,19 @@
       <c r="J33" s="130"/>
       <c r="K33" s="130"/>
       <c r="L33" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M33" s="131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N33" s="57" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O33" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P33" s="59"/>
@@ -3001,7 +3088,7 @@
       <c r="U33" s="63"/>
       <c r="W33" s="64"/>
     </row>
-    <row r="34" spans="1:23" s="60" customFormat="1">
+    <row r="34" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
       <c r="B34" s="129"/>
       <c r="C34" s="132"/>
@@ -3016,7 +3103,7 @@
       <c r="J34" s="130"/>
       <c r="K34" s="130"/>
       <c r="L34" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M34" s="131">
@@ -3024,11 +3111,11 @@
         <v>0</v>
       </c>
       <c r="N34" s="57" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O34" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P34" s="59"/>
@@ -3039,7 +3126,7 @@
       <c r="U34" s="63"/>
       <c r="W34" s="64"/>
     </row>
-    <row r="35" spans="1:23" s="60" customFormat="1">
+    <row r="35" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
       <c r="B35" s="129"/>
       <c r="C35" s="132"/>
@@ -3054,7 +3141,7 @@
       <c r="J35" s="130"/>
       <c r="K35" s="130"/>
       <c r="L35" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M35" s="131">
@@ -3062,11 +3149,11 @@
         <v>0</v>
       </c>
       <c r="N35" s="57" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P35" s="59"/>
@@ -3077,7 +3164,7 @@
       <c r="U35" s="63"/>
       <c r="W35" s="64"/>
     </row>
-    <row r="36" spans="1:23" s="60" customFormat="1">
+    <row r="36" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
       <c r="B36" s="129"/>
       <c r="C36" s="132"/>
@@ -3092,7 +3179,7 @@
       <c r="J36" s="130"/>
       <c r="K36" s="130"/>
       <c r="L36" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M36" s="131">
@@ -3100,11 +3187,11 @@
         <v>0</v>
       </c>
       <c r="N36" s="57" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P36" s="59"/>
@@ -3115,7 +3202,7 @@
       <c r="U36" s="63"/>
       <c r="W36" s="64"/>
     </row>
-    <row r="37" spans="1:23" s="60" customFormat="1">
+    <row r="37" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
       <c r="B37" s="129"/>
       <c r="C37" s="132"/>
@@ -3130,7 +3217,7 @@
       <c r="J37" s="130"/>
       <c r="K37" s="130"/>
       <c r="L37" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M37" s="131">
@@ -3138,11 +3225,11 @@
         <v>0</v>
       </c>
       <c r="N37" s="57" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P37" s="59"/>
@@ -3153,7 +3240,7 @@
       <c r="U37" s="63"/>
       <c r="W37" s="64"/>
     </row>
-    <row r="38" spans="1:23" s="60" customFormat="1">
+    <row r="38" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
       <c r="B38" s="129"/>
       <c r="C38" s="132"/>
@@ -3168,7 +3255,7 @@
       <c r="J38" s="130"/>
       <c r="K38" s="130"/>
       <c r="L38" s="132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M38" s="131">
@@ -3176,11 +3263,11 @@
         <v>0</v>
       </c>
       <c r="N38" s="57" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P38" s="59"/>
@@ -3191,7 +3278,7 @@
       <c r="U38" s="63"/>
       <c r="W38" s="64"/>
     </row>
-    <row r="39" spans="1:23" s="60" customFormat="1">
+    <row r="39" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
       <c r="B39" s="129"/>
       <c r="C39" s="132"/>
@@ -3215,7 +3302,7 @@
       <c r="U39" s="63"/>
       <c r="W39" s="64"/>
     </row>
-    <row r="40" spans="1:23" s="60" customFormat="1">
+    <row r="40" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="53"/>
       <c r="B40" s="129"/>
       <c r="C40" s="132"/>
@@ -3239,7 +3326,7 @@
       <c r="U40" s="63"/>
       <c r="W40" s="64"/>
     </row>
-    <row r="41" spans="1:23" s="29" customFormat="1">
+    <row r="41" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="133"/>
       <c r="C41" s="76">
@@ -3322,7 +3409,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="29" customFormat="1">
+    <row r="42" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="39"/>
       <c r="C42" s="50"/>
@@ -3350,7 +3437,7 @@
       </c>
       <c r="W42" s="69"/>
     </row>
-    <row r="43" spans="1:23" s="29" customFormat="1">
+    <row r="43" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="39"/>
       <c r="C43" s="50"/>
@@ -3375,7 +3462,7 @@
       <c r="R43" s="38"/>
       <c r="W43" s="69"/>
     </row>
-    <row r="44" spans="1:23" s="29" customFormat="1">
+    <row r="44" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="39"/>
       <c r="C44" s="42"/>
@@ -3400,7 +3487,7 @@
       <c r="R44" s="38"/>
       <c r="W44" s="69"/>
     </row>
-    <row r="45" spans="1:23" s="29" customFormat="1">
+    <row r="45" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="39"/>
       <c r="C45" s="42"/>
@@ -3425,7 +3512,7 @@
       <c r="R45" s="38"/>
       <c r="W45" s="69"/>
     </row>
-    <row r="46" spans="1:23" s="29" customFormat="1">
+    <row r="46" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="39"/>
       <c r="C46" s="42"/>
@@ -3450,7 +3537,7 @@
       <c r="R46" s="38"/>
       <c r="W46" s="69"/>
     </row>
-    <row r="47" spans="1:23" s="29" customFormat="1" ht="18.75">
+    <row r="47" spans="1:23" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="39"/>
       <c r="C47" s="40"/>
@@ -3476,7 +3563,7 @@
       <c r="R47" s="38"/>
       <c r="W47" s="69"/>
     </row>
-    <row r="48" spans="1:23" s="29" customFormat="1" ht="26.25">
+    <row r="48" spans="1:23" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A48" s="38"/>
       <c r="B48" s="39"/>
       <c r="C48" s="40"/>
@@ -3503,7 +3590,7 @@
       <c r="S48" s="28"/>
       <c r="W48" s="69"/>
     </row>
-    <row r="49" spans="1:23" s="37" customFormat="1">
+    <row r="49" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30"/>
       <c r="B49" s="31"/>
       <c r="C49" s="32"/>
@@ -3524,7 +3611,7 @@
       <c r="R49" s="30"/>
       <c r="W49" s="70"/>
     </row>
-    <row r="50" spans="1:23" s="75" customFormat="1" ht="18.75">
+    <row r="50" spans="1:23" s="75" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="68"/>
       <c r="B50" s="28"/>
       <c r="C50" s="71"/>
@@ -3541,7 +3628,7 @@
       <c r="N50" s="73"/>
       <c r="O50" s="74"/>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="50"/>
@@ -3557,7 +3644,7 @@
       <c r="Q51" s="9"/>
       <c r="R51" s="42"/>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R52" s="75"/>
     </row>
   </sheetData>
@@ -3570,7 +3657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan9"/>
   <dimension ref="A1:AM40"/>
   <sheetViews>
@@ -3581,7 +3668,7 @@
       <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="81" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="81" bestFit="1" customWidth="1"/>
@@ -3620,7 +3707,7 @@
     <col min="40" max="16384" width="3.42578125" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="78"/>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -3674,7 +3761,7 @@
       <c r="AK1" s="150"/>
       <c r="AL1" s="150"/>
     </row>
-    <row r="2" spans="1:38" s="78" customFormat="1">
+    <row r="2" spans="1:38" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D2" s="83" t="s">
         <v>1</v>
       </c>
@@ -3762,7 +3849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E3" s="93"/>
       <c r="F3" s="127"/>
       <c r="H3" s="86"/>
@@ -3803,7 +3890,7 @@
       <c r="AK3" s="87"/>
       <c r="AL3" s="88"/>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E4" s="87"/>
       <c r="F4" s="88"/>
       <c r="H4" s="86"/>
@@ -3845,7 +3932,7 @@
       <c r="AK4" s="87"/>
       <c r="AL4" s="88"/>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E5" s="88"/>
       <c r="F5" s="88"/>
       <c r="H5" s="86"/>
@@ -3885,7 +3972,7 @@
       <c r="AK5" s="87"/>
       <c r="AL5" s="88"/>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
       <c r="H6" s="86"/>
@@ -3921,7 +4008,7 @@
       <c r="AK6" s="87"/>
       <c r="AL6" s="88"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E7" s="87"/>
       <c r="F7" s="88"/>
       <c r="H7" s="86"/>
@@ -3957,7 +4044,7 @@
       <c r="AK7" s="87"/>
       <c r="AL7" s="88"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E8" s="87"/>
       <c r="F8" s="88"/>
       <c r="H8" s="86"/>
@@ -3993,7 +4080,7 @@
       <c r="AK8" s="87"/>
       <c r="AL8" s="88"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E9" s="87"/>
       <c r="F9" s="88"/>
       <c r="H9" s="86"/>
@@ -4029,7 +4116,7 @@
       <c r="AK9" s="87"/>
       <c r="AL9" s="88"/>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E10" s="87"/>
       <c r="F10" s="88"/>
       <c r="H10" s="86"/>
@@ -4059,7 +4146,7 @@
       <c r="AK10" s="87"/>
       <c r="AL10" s="88"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E11" s="87"/>
       <c r="F11" s="88"/>
       <c r="H11" s="86"/>
@@ -4089,7 +4176,7 @@
       <c r="AK11" s="87"/>
       <c r="AL11" s="88"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E12" s="87"/>
       <c r="F12" s="88"/>
       <c r="H12" s="86"/>
@@ -4119,7 +4206,7 @@
       <c r="AK12" s="87"/>
       <c r="AL12" s="88"/>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E13" s="88"/>
       <c r="F13" s="88"/>
       <c r="H13" s="86"/>
@@ -4149,7 +4236,7 @@
       <c r="AK13" s="87"/>
       <c r="AL13" s="88"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E14" s="87"/>
       <c r="F14" s="88"/>
       <c r="H14" s="86"/>
@@ -4179,7 +4266,7 @@
       <c r="AK14" s="87"/>
       <c r="AL14" s="88"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E15" s="87"/>
       <c r="F15" s="88"/>
       <c r="H15" s="86"/>
@@ -4209,7 +4296,7 @@
       <c r="AK15" s="87"/>
       <c r="AL15" s="88"/>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E16" s="87"/>
       <c r="F16" s="88"/>
       <c r="H16" s="86"/>
@@ -4239,7 +4326,7 @@
       <c r="AK16" s="87"/>
       <c r="AL16" s="88"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E17" s="87"/>
       <c r="F17" s="88"/>
       <c r="H17" s="86"/>
@@ -4269,7 +4356,7 @@
       <c r="AK17" s="87"/>
       <c r="AL17" s="88"/>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E18" s="87"/>
       <c r="F18" s="88"/>
       <c r="H18" s="86"/>
@@ -4299,7 +4386,7 @@
       <c r="AK18" s="88"/>
       <c r="AL18" s="88"/>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E19" s="87"/>
       <c r="F19" s="88"/>
       <c r="H19" s="86"/>
@@ -4329,7 +4416,7 @@
       <c r="AK19" s="88"/>
       <c r="AL19" s="88"/>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E20" s="87"/>
       <c r="F20" s="88"/>
       <c r="H20" s="86"/>
@@ -4355,7 +4442,7 @@
       <c r="AK20" s="87"/>
       <c r="AL20" s="88"/>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D21" s="81"/>
       <c r="E21" s="81"/>
       <c r="H21" s="90"/>
@@ -4379,7 +4466,7 @@
       <c r="AK21" s="87"/>
       <c r="AL21" s="88"/>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D22" s="81"/>
       <c r="E22" s="81"/>
       <c r="H22" s="90"/>
@@ -4400,7 +4487,7 @@
       <c r="AK22" s="87"/>
       <c r="AL22" s="88"/>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D23" s="81"/>
       <c r="E23" s="81"/>
       <c r="H23" s="90"/>
@@ -4412,7 +4499,7 @@
       <c r="R23" s="92"/>
       <c r="S23" s="92"/>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D24" s="81"/>
       <c r="E24" s="81"/>
       <c r="H24" s="90"/>
@@ -4422,7 +4509,7 @@
       <c r="R24" s="92"/>
       <c r="S24" s="92"/>
     </row>
-    <row r="25" spans="1:39" s="96" customFormat="1">
+    <row r="25" spans="1:39" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="96" t="s">
         <v>25</v>
       </c>
@@ -4539,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="96" t="s">
         <v>26</v>
       </c>
@@ -4658,7 +4745,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="96" t="s">
         <v>27</v>
       </c>
@@ -4721,7 +4808,7 @@
       <c r="AL27" s="98"/>
       <c r="AM27" s="90"/>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D28" s="81"/>
       <c r="E28" s="97"/>
       <c r="H28" s="90"/>
@@ -4736,7 +4823,7 @@
       <c r="Y28" s="97"/>
       <c r="AC28" s="97"/>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="96" t="s">
         <v>28</v>
       </c>
@@ -4751,7 +4838,7 @@
       <c r="G29" s="90"/>
       <c r="H29" s="90"/>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="96" t="s">
         <v>20</v>
       </c>
@@ -4778,7 +4865,7 @@
       <c r="AK30" s="95"/>
       <c r="AL30" s="95"/>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="96" t="s">
         <v>16</v>
       </c>
@@ -4800,14 +4887,14 @@
       <c r="AH31" s="95"/>
       <c r="AL31" s="95"/>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="96"/>
       <c r="B32" s="86"/>
       <c r="E32" s="81"/>
       <c r="F32" s="89"/>
       <c r="H32" s="81"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="96" t="s">
         <v>27</v>
       </c>
@@ -4820,7 +4907,7 @@
       <c r="F33" s="89"/>
       <c r="H33" s="81"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="96" t="s">
         <v>29</v>
       </c>
@@ -4837,7 +4924,7 @@
       <c r="F34" s="89"/>
       <c r="H34" s="81"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="96" t="s">
         <v>30</v>
       </c>
@@ -4853,7 +4940,7 @@
       <c r="F35" s="89"/>
       <c r="H35" s="81"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="96" t="s">
         <v>31</v>
       </c>
@@ -4867,13 +4954,13 @@
       <c r="F36" s="89"/>
       <c r="H36" s="81"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="86"/>
       <c r="E37" s="81"/>
       <c r="F37" s="89"/>
       <c r="H37" s="81"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="96" t="s">
         <v>32</v>
       </c>
@@ -4886,7 +4973,7 @@
       <c r="F38" s="89"/>
       <c r="H38" s="81"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="96" t="s">
         <v>33</v>
       </c>
@@ -4899,7 +4986,7 @@
       <c r="F39" s="89"/>
       <c r="H39" s="81"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E40" s="81"/>
       <c r="F40" s="89"/>
       <c r="H40" s="81"/>
@@ -4922,7 +5009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan13"/>
   <dimension ref="A1:H192"/>
   <sheetViews>
@@ -4933,7 +5020,7 @@
       <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="86" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="107" bestFit="1" customWidth="1"/>
@@ -4946,7 +5033,7 @@
     <col min="9" max="16384" width="3.42578125" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="78" customFormat="1">
+    <row r="1" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
@@ -4972,13 +5059,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="87"/>
       <c r="C2" s="88"/>
       <c r="E2" s="95"/>
       <c r="F2" s="95"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="87"/>
       <c r="C3" s="88"/>
       <c r="E3" s="89"/>
@@ -4986,109 +5073,109 @@
       <c r="G3" s="112"/>
       <c r="H3" s="110"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="87"/>
       <c r="C4" s="88"/>
       <c r="E4" s="89"/>
       <c r="F4" s="95"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="87"/>
       <c r="C5" s="88"/>
       <c r="E5" s="89"/>
       <c r="F5" s="95"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="87"/>
       <c r="C6" s="88"/>
       <c r="E6" s="89"/>
       <c r="F6" s="95"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="87"/>
       <c r="C7" s="88"/>
       <c r="E7" s="89"/>
       <c r="F7" s="95"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="87"/>
       <c r="C8" s="88"/>
       <c r="E8" s="89"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="87"/>
       <c r="C9" s="88"/>
       <c r="E9" s="89"/>
       <c r="F9" s="95"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="87"/>
       <c r="C10" s="88"/>
       <c r="E10" s="89"/>
       <c r="F10" s="95"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
       <c r="C11" s="88"/>
       <c r="E11" s="89"/>
       <c r="F11" s="95"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="88"/>
       <c r="C12" s="88"/>
       <c r="E12" s="89"/>
       <c r="F12" s="95"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="87"/>
       <c r="C13" s="88"/>
       <c r="E13" s="89"/>
       <c r="F13" s="95"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="87"/>
       <c r="C14" s="88"/>
       <c r="E14" s="89"/>
       <c r="F14" s="95"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="87"/>
       <c r="C15" s="88"/>
       <c r="E15" s="89"/>
       <c r="F15" s="95"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="87"/>
       <c r="C16" s="88"/>
       <c r="E16" s="89"/>
       <c r="F16" s="95"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="87"/>
       <c r="C17" s="88"/>
       <c r="E17" s="89"/>
       <c r="F17" s="95"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="87"/>
       <c r="C18" s="88"/>
       <c r="E18" s="89"/>
       <c r="F18" s="95"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="87"/>
       <c r="C19" s="88"/>
       <c r="E19" s="89"/>
       <c r="F19" s="95"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="87"/>
       <c r="C20" s="88"/>
       <c r="E20" s="89"/>
       <c r="F20" s="95"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="87"/>
       <c r="C21" s="88"/>
       <c r="E21" s="89"/>
@@ -5096,7 +5183,7 @@
       <c r="G21" s="109"/>
       <c r="H21" s="110"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="87"/>
       <c r="C22" s="88"/>
       <c r="E22" s="89"/>
@@ -5104,7 +5191,7 @@
       <c r="G22" s="109"/>
       <c r="H22" s="110"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="87"/>
       <c r="C23" s="88"/>
       <c r="E23" s="89"/>
@@ -5112,7 +5199,7 @@
       <c r="G23" s="109"/>
       <c r="H23" s="110"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="88"/>
       <c r="C24" s="88"/>
       <c r="E24" s="89"/>
@@ -5120,7 +5207,7 @@
       <c r="G24" s="109"/>
       <c r="H24" s="110"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
       <c r="E25" s="89"/>
@@ -5128,7 +5215,7 @@
       <c r="G25" s="109"/>
       <c r="H25" s="110"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="87"/>
       <c r="C26" s="88"/>
       <c r="E26" s="89"/>
@@ -5136,7 +5223,7 @@
       <c r="G26" s="109"/>
       <c r="H26" s="110"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="87"/>
       <c r="C27" s="88"/>
       <c r="E27" s="89"/>
@@ -5144,7 +5231,7 @@
       <c r="G27" s="109"/>
       <c r="H27" s="110"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="87"/>
       <c r="C28" s="88"/>
       <c r="E28" s="89"/>
@@ -5152,7 +5239,7 @@
       <c r="G28" s="109"/>
       <c r="H28" s="110"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="88"/>
       <c r="C29" s="88"/>
       <c r="E29" s="89"/>
@@ -5160,7 +5247,7 @@
       <c r="G29" s="109"/>
       <c r="H29" s="110"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="88"/>
       <c r="C30" s="88"/>
       <c r="E30" s="89"/>
@@ -5168,7 +5255,7 @@
       <c r="G30" s="109"/>
       <c r="H30" s="110"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="87"/>
       <c r="C31" s="88"/>
       <c r="E31" s="89"/>
@@ -5176,7 +5263,7 @@
       <c r="G31" s="109"/>
       <c r="H31" s="110"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="87"/>
       <c r="C32" s="88"/>
       <c r="E32" s="89"/>
@@ -5184,7 +5271,7 @@
       <c r="G32" s="109"/>
       <c r="H32" s="110"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="87"/>
       <c r="C33" s="88"/>
       <c r="E33" s="89"/>
@@ -5192,7 +5279,7 @@
       <c r="G33" s="109"/>
       <c r="H33" s="110"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="87"/>
       <c r="C34" s="88"/>
       <c r="E34" s="89"/>
@@ -5200,7 +5287,7 @@
       <c r="G34" s="109"/>
       <c r="H34" s="110"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="87"/>
       <c r="C35" s="88"/>
       <c r="E35" s="89"/>
@@ -5208,7 +5295,7 @@
       <c r="G35" s="109"/>
       <c r="H35" s="110"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="87"/>
       <c r="C36" s="88"/>
       <c r="E36" s="89"/>
@@ -5216,7 +5303,7 @@
       <c r="G36" s="109"/>
       <c r="H36" s="110"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="87"/>
       <c r="C37" s="88"/>
       <c r="E37" s="89"/>
@@ -5224,7 +5311,7 @@
       <c r="G37" s="109"/>
       <c r="H37" s="110"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="87"/>
       <c r="C38" s="88"/>
       <c r="E38" s="89"/>
@@ -5232,7 +5319,7 @@
       <c r="G38" s="109"/>
       <c r="H38" s="110"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="87"/>
       <c r="C39" s="88"/>
       <c r="E39" s="89"/>
@@ -5240,7 +5327,7 @@
       <c r="G39" s="109"/>
       <c r="H39" s="110"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="87"/>
       <c r="C40" s="88"/>
       <c r="E40" s="89"/>
@@ -5248,7 +5335,7 @@
       <c r="G40" s="109"/>
       <c r="H40" s="110"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="87"/>
       <c r="C41" s="88"/>
       <c r="E41" s="89"/>
@@ -5256,7 +5343,7 @@
       <c r="G41" s="109"/>
       <c r="H41" s="110"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="87"/>
       <c r="C42" s="88"/>
       <c r="E42" s="89"/>
@@ -5264,7 +5351,7 @@
       <c r="G42" s="109"/>
       <c r="H42" s="110"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="87"/>
       <c r="C43" s="88"/>
       <c r="E43" s="89"/>
@@ -5272,7 +5359,7 @@
       <c r="G43" s="109"/>
       <c r="H43" s="110"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="87"/>
       <c r="C44" s="88"/>
       <c r="E44" s="89"/>
@@ -5280,7 +5367,7 @@
       <c r="G44" s="109"/>
       <c r="H44" s="110"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="87"/>
       <c r="C45" s="88"/>
       <c r="E45" s="89"/>
@@ -5288,7 +5375,7 @@
       <c r="G45" s="109"/>
       <c r="H45" s="110"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="87"/>
       <c r="C46" s="88"/>
       <c r="E46" s="89"/>
@@ -5296,7 +5383,7 @@
       <c r="G46" s="109"/>
       <c r="H46" s="110"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="87"/>
       <c r="C47" s="88"/>
       <c r="E47" s="89"/>
@@ -5304,7 +5391,7 @@
       <c r="G47" s="109"/>
       <c r="H47" s="110"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="87"/>
       <c r="C48" s="88"/>
       <c r="E48" s="89"/>
@@ -5312,7 +5399,7 @@
       <c r="G48" s="109"/>
       <c r="H48" s="110"/>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="88"/>
       <c r="C49" s="88"/>
       <c r="E49" s="89"/>
@@ -5320,7 +5407,7 @@
       <c r="G49" s="109"/>
       <c r="H49" s="110"/>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="87"/>
       <c r="C50" s="88"/>
       <c r="E50" s="89"/>
@@ -5328,7 +5415,7 @@
       <c r="G50" s="109"/>
       <c r="H50" s="110"/>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="87"/>
       <c r="C51" s="88"/>
       <c r="E51" s="89"/>
@@ -5336,7 +5423,7 @@
       <c r="G51" s="109"/>
       <c r="H51" s="110"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="87"/>
       <c r="C52" s="88"/>
       <c r="E52" s="89"/>
@@ -5344,7 +5431,7 @@
       <c r="G52" s="109"/>
       <c r="H52" s="110"/>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="87"/>
       <c r="C53" s="88"/>
       <c r="E53" s="89"/>
@@ -5352,7 +5439,7 @@
       <c r="G53" s="109"/>
       <c r="H53" s="110"/>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="87"/>
       <c r="C54" s="88"/>
       <c r="E54" s="89"/>
@@ -5360,7 +5447,7 @@
       <c r="G54" s="109"/>
       <c r="H54" s="110"/>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="87"/>
       <c r="C55" s="88"/>
       <c r="E55" s="89"/>
@@ -5368,7 +5455,7 @@
       <c r="G55" s="109"/>
       <c r="H55" s="110"/>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="88"/>
       <c r="C56" s="88"/>
       <c r="E56" s="89"/>
@@ -5376,7 +5463,7 @@
       <c r="G56" s="109"/>
       <c r="H56" s="110"/>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="87"/>
       <c r="C57" s="88"/>
       <c r="E57" s="89"/>
@@ -5384,7 +5471,7 @@
       <c r="G57" s="109"/>
       <c r="H57" s="110"/>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="87"/>
       <c r="C58" s="88"/>
       <c r="E58" s="89"/>
@@ -5392,7 +5479,7 @@
       <c r="G58" s="109"/>
       <c r="H58" s="110"/>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="87"/>
       <c r="C59" s="88"/>
       <c r="E59" s="89"/>
@@ -5400,7 +5487,7 @@
       <c r="G59" s="109"/>
       <c r="H59" s="110"/>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="87"/>
       <c r="C60" s="88"/>
       <c r="E60" s="89"/>
@@ -5408,7 +5495,7 @@
       <c r="G60" s="109"/>
       <c r="H60" s="110"/>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="87"/>
       <c r="C61" s="88"/>
       <c r="E61" s="89"/>
@@ -5416,7 +5503,7 @@
       <c r="G61" s="109"/>
       <c r="H61" s="110"/>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="87"/>
       <c r="C62" s="88"/>
       <c r="E62" s="89"/>
@@ -5424,7 +5511,7 @@
       <c r="G62" s="109"/>
       <c r="H62" s="110"/>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="87"/>
       <c r="C63" s="88"/>
       <c r="E63" s="89"/>
@@ -5432,7 +5519,7 @@
       <c r="G63" s="109"/>
       <c r="H63" s="110"/>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="87"/>
       <c r="C64" s="88"/>
       <c r="E64" s="89"/>
@@ -5440,7 +5527,7 @@
       <c r="G64" s="109"/>
       <c r="H64" s="110"/>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="87"/>
       <c r="C65" s="88"/>
       <c r="E65" s="89"/>
@@ -5448,7 +5535,7 @@
       <c r="G65" s="109"/>
       <c r="H65" s="110"/>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="88"/>
       <c r="C66" s="88"/>
       <c r="E66" s="89"/>
@@ -5456,7 +5543,7 @@
       <c r="G66" s="109"/>
       <c r="H66" s="110"/>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="87"/>
       <c r="C67" s="88"/>
       <c r="E67" s="89"/>
@@ -5464,7 +5551,7 @@
       <c r="G67" s="109"/>
       <c r="H67" s="110"/>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="87"/>
       <c r="C68" s="88"/>
       <c r="E68" s="89"/>
@@ -5472,7 +5559,7 @@
       <c r="G68" s="109"/>
       <c r="H68" s="110"/>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="87"/>
       <c r="C69" s="88"/>
       <c r="E69" s="89"/>
@@ -5480,7 +5567,7 @@
       <c r="G69" s="109"/>
       <c r="H69" s="110"/>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="87"/>
       <c r="C70" s="88"/>
       <c r="E70" s="89"/>
@@ -5488,7 +5575,7 @@
       <c r="G70" s="109"/>
       <c r="H70" s="110"/>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="88"/>
       <c r="C71" s="88"/>
       <c r="E71" s="89"/>
@@ -5496,7 +5583,7 @@
       <c r="G71" s="109"/>
       <c r="H71" s="110"/>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="87"/>
       <c r="C72" s="88"/>
       <c r="E72" s="89"/>
@@ -5504,7 +5591,7 @@
       <c r="G72" s="109"/>
       <c r="H72" s="110"/>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="87"/>
       <c r="C73" s="88"/>
       <c r="E73" s="89"/>
@@ -5512,7 +5599,7 @@
       <c r="G73" s="109"/>
       <c r="H73" s="110"/>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="87"/>
       <c r="C74" s="88"/>
       <c r="E74" s="89"/>
@@ -5520,7 +5607,7 @@
       <c r="G74" s="109"/>
       <c r="H74" s="110"/>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="87"/>
       <c r="C75" s="88"/>
       <c r="E75" s="89"/>
@@ -5528,7 +5615,7 @@
       <c r="G75" s="109"/>
       <c r="H75" s="110"/>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="87"/>
       <c r="C76" s="88"/>
       <c r="E76" s="89"/>
@@ -5536,7 +5623,7 @@
       <c r="G76" s="109"/>
       <c r="H76" s="110"/>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="87"/>
       <c r="C77" s="88"/>
       <c r="E77" s="89"/>
@@ -5544,7 +5631,7 @@
       <c r="G77" s="109"/>
       <c r="H77" s="110"/>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="87"/>
       <c r="C78" s="88"/>
       <c r="E78" s="89"/>
@@ -5552,7 +5639,7 @@
       <c r="G78" s="109"/>
       <c r="H78" s="110"/>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="87"/>
       <c r="C79" s="88"/>
       <c r="E79" s="89"/>
@@ -5560,7 +5647,7 @@
       <c r="G79" s="109"/>
       <c r="H79" s="110"/>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="87"/>
       <c r="C80" s="88"/>
       <c r="E80" s="89"/>
@@ -5568,7 +5655,7 @@
       <c r="G80" s="109"/>
       <c r="H80" s="110"/>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="87"/>
       <c r="C81" s="88"/>
       <c r="E81" s="89"/>
@@ -5576,7 +5663,7 @@
       <c r="G81" s="109"/>
       <c r="H81" s="110"/>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="87"/>
       <c r="C82" s="88"/>
       <c r="E82" s="89"/>
@@ -5584,7 +5671,7 @@
       <c r="G82" s="109"/>
       <c r="H82" s="110"/>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="87"/>
       <c r="C83" s="88"/>
       <c r="E83" s="89"/>
@@ -5592,7 +5679,7 @@
       <c r="G83" s="109"/>
       <c r="H83" s="110"/>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="87"/>
       <c r="C84" s="88"/>
       <c r="E84" s="89"/>
@@ -5600,7 +5687,7 @@
       <c r="G84" s="109"/>
       <c r="H84" s="110"/>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="87"/>
       <c r="C85" s="88"/>
       <c r="E85" s="89"/>
@@ -5608,7 +5695,7 @@
       <c r="G85" s="109"/>
       <c r="H85" s="110"/>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="87"/>
       <c r="C86" s="88"/>
       <c r="E86" s="89"/>
@@ -5616,7 +5703,7 @@
       <c r="G86" s="109"/>
       <c r="H86" s="110"/>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="87"/>
       <c r="C87" s="88"/>
       <c r="E87" s="89"/>
@@ -5624,7 +5711,7 @@
       <c r="G87" s="109"/>
       <c r="H87" s="110"/>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="87"/>
       <c r="C88" s="88"/>
       <c r="E88" s="89"/>
@@ -5632,7 +5719,7 @@
       <c r="G88" s="109"/>
       <c r="H88" s="110"/>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="87"/>
       <c r="C89" s="88"/>
       <c r="E89" s="89"/>
@@ -5640,7 +5727,7 @@
       <c r="G89" s="109"/>
       <c r="H89" s="110"/>
     </row>
-    <row r="90" spans="2:8">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="87"/>
       <c r="C90" s="88"/>
       <c r="E90" s="89"/>
@@ -5648,7 +5735,7 @@
       <c r="G90" s="109"/>
       <c r="H90" s="110"/>
     </row>
-    <row r="91" spans="2:8">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="87"/>
       <c r="C91" s="88"/>
       <c r="E91" s="89"/>
@@ -5656,7 +5743,7 @@
       <c r="G91" s="109"/>
       <c r="H91" s="110"/>
     </row>
-    <row r="92" spans="2:8">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="87"/>
       <c r="C92" s="88"/>
       <c r="E92" s="89"/>
@@ -5664,7 +5751,7 @@
       <c r="G92" s="109"/>
       <c r="H92" s="110"/>
     </row>
-    <row r="93" spans="2:8">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="88"/>
       <c r="C93" s="88"/>
       <c r="E93" s="89"/>
@@ -5672,7 +5759,7 @@
       <c r="G93" s="109"/>
       <c r="H93" s="110"/>
     </row>
-    <row r="94" spans="2:8">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="87"/>
       <c r="C94" s="88"/>
       <c r="E94" s="89"/>
@@ -5680,7 +5767,7 @@
       <c r="G94" s="109"/>
       <c r="H94" s="110"/>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="87"/>
       <c r="C95" s="88"/>
       <c r="E95" s="89"/>
@@ -5688,7 +5775,7 @@
       <c r="G95" s="109"/>
       <c r="H95" s="110"/>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="87"/>
       <c r="C96" s="88"/>
       <c r="E96" s="89"/>
@@ -5696,7 +5783,7 @@
       <c r="G96" s="109"/>
       <c r="H96" s="110"/>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="87"/>
       <c r="C97" s="88"/>
       <c r="E97" s="89"/>
@@ -5704,7 +5791,7 @@
       <c r="G97" s="109"/>
       <c r="H97" s="110"/>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="87"/>
       <c r="C98" s="88"/>
       <c r="E98" s="89"/>
@@ -5712,7 +5799,7 @@
       <c r="G98" s="109"/>
       <c r="H98" s="110"/>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="87"/>
       <c r="C99" s="88"/>
       <c r="E99" s="89"/>
@@ -5720,7 +5807,7 @@
       <c r="G99" s="109"/>
       <c r="H99" s="110"/>
     </row>
-    <row r="100" spans="2:8">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="87"/>
       <c r="C100" s="88"/>
       <c r="E100" s="89"/>
@@ -5728,7 +5815,7 @@
       <c r="G100" s="109"/>
       <c r="H100" s="110"/>
     </row>
-    <row r="101" spans="2:8">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="87"/>
       <c r="C101" s="88"/>
       <c r="E101" s="89"/>
@@ -5736,7 +5823,7 @@
       <c r="G101" s="109"/>
       <c r="H101" s="110"/>
     </row>
-    <row r="102" spans="2:8">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="87"/>
       <c r="C102" s="88"/>
       <c r="E102" s="89"/>
@@ -5744,7 +5831,7 @@
       <c r="G102" s="109"/>
       <c r="H102" s="110"/>
     </row>
-    <row r="103" spans="2:8">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="87"/>
       <c r="C103" s="88"/>
       <c r="E103" s="89"/>
@@ -5752,7 +5839,7 @@
       <c r="G103" s="109"/>
       <c r="H103" s="110"/>
     </row>
-    <row r="104" spans="2:8">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="87"/>
       <c r="C104" s="88"/>
       <c r="E104" s="89"/>
@@ -5760,7 +5847,7 @@
       <c r="G104" s="109"/>
       <c r="H104" s="110"/>
     </row>
-    <row r="105" spans="2:8">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="87"/>
       <c r="C105" s="88"/>
       <c r="E105" s="89"/>
@@ -5768,7 +5855,7 @@
       <c r="G105" s="109"/>
       <c r="H105" s="110"/>
     </row>
-    <row r="106" spans="2:8">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="87"/>
       <c r="C106" s="88"/>
       <c r="E106" s="89"/>
@@ -5776,7 +5863,7 @@
       <c r="G106" s="109"/>
       <c r="H106" s="110"/>
     </row>
-    <row r="107" spans="2:8">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="87"/>
       <c r="C107" s="88"/>
       <c r="E107" s="89"/>
@@ -5784,7 +5871,7 @@
       <c r="G107" s="109"/>
       <c r="H107" s="110"/>
     </row>
-    <row r="108" spans="2:8">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="87"/>
       <c r="C108" s="88"/>
       <c r="E108" s="89"/>
@@ -5792,7 +5879,7 @@
       <c r="G108" s="109"/>
       <c r="H108" s="110"/>
     </row>
-    <row r="109" spans="2:8">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="87"/>
       <c r="C109" s="88"/>
       <c r="E109" s="89"/>
@@ -5800,7 +5887,7 @@
       <c r="G109" s="109"/>
       <c r="H109" s="110"/>
     </row>
-    <row r="110" spans="2:8">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="87"/>
       <c r="C110" s="88"/>
       <c r="E110" s="89"/>
@@ -5808,7 +5895,7 @@
       <c r="G110" s="109"/>
       <c r="H110" s="110"/>
     </row>
-    <row r="111" spans="2:8">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="87"/>
       <c r="C111" s="88"/>
       <c r="E111" s="89"/>
@@ -5816,7 +5903,7 @@
       <c r="G111" s="109"/>
       <c r="H111" s="110"/>
     </row>
-    <row r="112" spans="2:8">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="87"/>
       <c r="C112" s="88"/>
       <c r="E112" s="89"/>
@@ -5824,7 +5911,7 @@
       <c r="G112" s="109"/>
       <c r="H112" s="110"/>
     </row>
-    <row r="113" spans="2:8">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="87"/>
       <c r="C113" s="88"/>
       <c r="E113" s="89"/>
@@ -5832,7 +5919,7 @@
       <c r="G113" s="109"/>
       <c r="H113" s="110"/>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="87"/>
       <c r="C114" s="88"/>
       <c r="E114" s="89"/>
@@ -5840,7 +5927,7 @@
       <c r="G114" s="109"/>
       <c r="H114" s="110"/>
     </row>
-    <row r="115" spans="2:8">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="87"/>
       <c r="C115" s="88"/>
       <c r="E115" s="89"/>
@@ -5848,7 +5935,7 @@
       <c r="G115" s="109"/>
       <c r="H115" s="110"/>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="88"/>
       <c r="C116" s="88"/>
       <c r="E116" s="89"/>
@@ -5856,7 +5943,7 @@
       <c r="G116" s="109"/>
       <c r="H116" s="110"/>
     </row>
-    <row r="117" spans="2:8">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="88"/>
       <c r="C117" s="88"/>
       <c r="E117" s="89"/>
@@ -5864,7 +5951,7 @@
       <c r="G117" s="109"/>
       <c r="H117" s="110"/>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="87"/>
       <c r="C118" s="88"/>
       <c r="E118" s="89"/>
@@ -5872,7 +5959,7 @@
       <c r="G118" s="109"/>
       <c r="H118" s="110"/>
     </row>
-    <row r="119" spans="2:8">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="87"/>
       <c r="C119" s="88"/>
       <c r="E119" s="89"/>
@@ -5880,7 +5967,7 @@
       <c r="G119" s="109"/>
       <c r="H119" s="110"/>
     </row>
-    <row r="120" spans="2:8">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="87"/>
       <c r="C120" s="88"/>
       <c r="E120" s="89"/>
@@ -5888,7 +5975,7 @@
       <c r="G120" s="109"/>
       <c r="H120" s="110"/>
     </row>
-    <row r="121" spans="2:8">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="88"/>
       <c r="C121" s="88"/>
       <c r="E121" s="89"/>
@@ -5896,7 +5983,7 @@
       <c r="G121" s="109"/>
       <c r="H121" s="110"/>
     </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="88"/>
       <c r="C122" s="88"/>
       <c r="E122" s="89"/>
@@ -5904,7 +5991,7 @@
       <c r="G122" s="109"/>
       <c r="H122" s="110"/>
     </row>
-    <row r="123" spans="2:8">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="87"/>
       <c r="C123" s="88"/>
       <c r="E123" s="89"/>
@@ -5912,7 +5999,7 @@
       <c r="G123" s="109"/>
       <c r="H123" s="110"/>
     </row>
-    <row r="124" spans="2:8">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="87"/>
       <c r="C124" s="88"/>
       <c r="E124" s="89"/>
@@ -5920,7 +6007,7 @@
       <c r="G124" s="109"/>
       <c r="H124" s="110"/>
     </row>
-    <row r="125" spans="2:8">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="87"/>
       <c r="C125" s="88"/>
       <c r="E125" s="89"/>
@@ -5928,7 +6015,7 @@
       <c r="G125" s="109"/>
       <c r="H125" s="110"/>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="87"/>
       <c r="C126" s="88"/>
       <c r="E126" s="89"/>
@@ -5936,7 +6023,7 @@
       <c r="G126" s="109"/>
       <c r="H126" s="110"/>
     </row>
-    <row r="127" spans="2:8">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="87"/>
       <c r="C127" s="88"/>
       <c r="E127" s="89"/>
@@ -5944,7 +6031,7 @@
       <c r="G127" s="109"/>
       <c r="H127" s="110"/>
     </row>
-    <row r="128" spans="2:8">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="87"/>
       <c r="C128" s="88"/>
       <c r="E128" s="89"/>
@@ -5952,7 +6039,7 @@
       <c r="G128" s="109"/>
       <c r="H128" s="110"/>
     </row>
-    <row r="129" spans="2:8">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="87"/>
       <c r="C129" s="88"/>
       <c r="E129" s="89"/>
@@ -5960,7 +6047,7 @@
       <c r="G129" s="109"/>
       <c r="H129" s="110"/>
     </row>
-    <row r="130" spans="2:8">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="87"/>
       <c r="C130" s="88"/>
       <c r="E130" s="89"/>
@@ -5968,7 +6055,7 @@
       <c r="G130" s="109"/>
       <c r="H130" s="110"/>
     </row>
-    <row r="131" spans="2:8">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="87"/>
       <c r="C131" s="88"/>
       <c r="E131" s="89"/>
@@ -5976,7 +6063,7 @@
       <c r="G131" s="109"/>
       <c r="H131" s="110"/>
     </row>
-    <row r="132" spans="2:8">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="87"/>
       <c r="C132" s="88"/>
       <c r="E132" s="89"/>
@@ -5984,7 +6071,7 @@
       <c r="G132" s="109"/>
       <c r="H132" s="110"/>
     </row>
-    <row r="133" spans="2:8">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="87"/>
       <c r="C133" s="88"/>
       <c r="E133" s="89"/>
@@ -5992,7 +6079,7 @@
       <c r="G133" s="109"/>
       <c r="H133" s="110"/>
     </row>
-    <row r="134" spans="2:8">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="88"/>
       <c r="C134" s="88"/>
       <c r="E134" s="89"/>
@@ -6000,7 +6087,7 @@
       <c r="G134" s="109"/>
       <c r="H134" s="110"/>
     </row>
-    <row r="135" spans="2:8">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="87"/>
       <c r="C135" s="88"/>
       <c r="E135" s="89"/>
@@ -6008,7 +6095,7 @@
       <c r="G135" s="109"/>
       <c r="H135" s="110"/>
     </row>
-    <row r="136" spans="2:8">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="87"/>
       <c r="C136" s="88"/>
       <c r="E136" s="89"/>
@@ -6016,7 +6103,7 @@
       <c r="G136" s="109"/>
       <c r="H136" s="110"/>
     </row>
-    <row r="137" spans="2:8">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="87"/>
       <c r="C137" s="88"/>
       <c r="E137" s="89"/>
@@ -6024,7 +6111,7 @@
       <c r="G137" s="109"/>
       <c r="H137" s="110"/>
     </row>
-    <row r="138" spans="2:8">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="87"/>
       <c r="C138" s="88"/>
       <c r="E138" s="89"/>
@@ -6032,7 +6119,7 @@
       <c r="G138" s="109"/>
       <c r="H138" s="110"/>
     </row>
-    <row r="139" spans="2:8">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="87"/>
       <c r="C139" s="88"/>
       <c r="E139" s="89"/>
@@ -6040,7 +6127,7 @@
       <c r="G139" s="109"/>
       <c r="H139" s="110"/>
     </row>
-    <row r="140" spans="2:8">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="87"/>
       <c r="C140" s="88"/>
       <c r="E140" s="89"/>
@@ -6048,7 +6135,7 @@
       <c r="G140" s="109"/>
       <c r="H140" s="110"/>
     </row>
-    <row r="141" spans="2:8">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="88"/>
       <c r="C141" s="88"/>
       <c r="E141" s="89"/>
@@ -6056,7 +6143,7 @@
       <c r="G141" s="109"/>
       <c r="H141" s="110"/>
     </row>
-    <row r="142" spans="2:8">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="87"/>
       <c r="C142" s="88"/>
       <c r="E142" s="89"/>
@@ -6064,7 +6151,7 @@
       <c r="G142" s="109"/>
       <c r="H142" s="110"/>
     </row>
-    <row r="143" spans="2:8">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="87"/>
       <c r="C143" s="88"/>
       <c r="E143" s="89"/>
@@ -6072,7 +6159,7 @@
       <c r="G143" s="109"/>
       <c r="H143" s="110"/>
     </row>
-    <row r="144" spans="2:8">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="87"/>
       <c r="C144" s="88"/>
       <c r="E144" s="89"/>
@@ -6080,7 +6167,7 @@
       <c r="G144" s="109"/>
       <c r="H144" s="110"/>
     </row>
-    <row r="145" spans="2:8">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="87"/>
       <c r="C145" s="88"/>
       <c r="E145" s="89"/>
@@ -6088,7 +6175,7 @@
       <c r="G145" s="109"/>
       <c r="H145" s="110"/>
     </row>
-    <row r="146" spans="2:8">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="87"/>
       <c r="C146" s="88"/>
       <c r="E146" s="89"/>
@@ -6096,7 +6183,7 @@
       <c r="G146" s="109"/>
       <c r="H146" s="110"/>
     </row>
-    <row r="147" spans="2:8">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="88"/>
       <c r="C147" s="88"/>
       <c r="E147" s="89"/>
@@ -6104,7 +6191,7 @@
       <c r="G147" s="109"/>
       <c r="H147" s="110"/>
     </row>
-    <row r="148" spans="2:8">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="88"/>
       <c r="C148" s="88"/>
       <c r="E148" s="89"/>
@@ -6112,7 +6199,7 @@
       <c r="G148" s="109"/>
       <c r="H148" s="110"/>
     </row>
-    <row r="149" spans="2:8">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="87"/>
       <c r="C149" s="88"/>
       <c r="E149" s="89"/>
@@ -6120,7 +6207,7 @@
       <c r="G149" s="109"/>
       <c r="H149" s="110"/>
     </row>
-    <row r="150" spans="2:8">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="87"/>
       <c r="C150" s="88"/>
       <c r="E150" s="89"/>
@@ -6128,7 +6215,7 @@
       <c r="G150" s="111"/>
       <c r="H150" s="110"/>
     </row>
-    <row r="151" spans="2:8">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="87"/>
       <c r="C151" s="88"/>
       <c r="E151" s="89"/>
@@ -6136,7 +6223,7 @@
       <c r="G151" s="112"/>
       <c r="H151" s="110"/>
     </row>
-    <row r="152" spans="2:8">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="87"/>
       <c r="C152" s="88"/>
       <c r="E152" s="89"/>
@@ -6144,7 +6231,7 @@
       <c r="G152" s="112"/>
       <c r="H152" s="110"/>
     </row>
-    <row r="153" spans="2:8">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="87"/>
       <c r="C153" s="88"/>
       <c r="E153" s="89"/>
@@ -6152,7 +6239,7 @@
       <c r="G153" s="112"/>
       <c r="H153" s="110"/>
     </row>
-    <row r="154" spans="2:8">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="87"/>
       <c r="C154" s="88"/>
       <c r="E154" s="89"/>
@@ -6160,7 +6247,7 @@
       <c r="G154" s="112"/>
       <c r="H154" s="110"/>
     </row>
-    <row r="155" spans="2:8">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="87"/>
       <c r="C155" s="88"/>
       <c r="E155" s="89"/>
@@ -6168,7 +6255,7 @@
       <c r="G155" s="112"/>
       <c r="H155" s="110"/>
     </row>
-    <row r="156" spans="2:8">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="87"/>
       <c r="C156" s="88"/>
       <c r="E156" s="89"/>
@@ -6176,7 +6263,7 @@
       <c r="G156" s="112"/>
       <c r="H156" s="110"/>
     </row>
-    <row r="157" spans="2:8">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="87"/>
       <c r="C157" s="88"/>
       <c r="E157" s="89"/>
@@ -6184,7 +6271,7 @@
       <c r="G157" s="112"/>
       <c r="H157" s="110"/>
     </row>
-    <row r="158" spans="2:8">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="87"/>
       <c r="C158" s="88"/>
       <c r="E158" s="89"/>
@@ -6192,7 +6279,7 @@
       <c r="G158" s="112"/>
       <c r="H158" s="110"/>
     </row>
-    <row r="159" spans="2:8">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="87"/>
       <c r="C159" s="88"/>
       <c r="E159" s="89"/>
@@ -6200,136 +6287,136 @@
       <c r="G159" s="112"/>
       <c r="H159" s="110"/>
     </row>
-    <row r="161" spans="5:7">
+    <row r="161" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E161" s="89"/>
       <c r="F161" s="95"/>
       <c r="G161" s="109"/>
     </row>
-    <row r="162" spans="5:7">
+    <row r="162" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E162" s="89"/>
       <c r="F162" s="95"/>
       <c r="G162" s="109"/>
     </row>
-    <row r="163" spans="5:7">
+    <row r="163" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E163" s="89"/>
       <c r="F163" s="95"/>
       <c r="G163" s="109"/>
     </row>
-    <row r="164" spans="5:7">
+    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E164" s="89"/>
       <c r="F164" s="95"/>
       <c r="G164" s="109"/>
     </row>
-    <row r="165" spans="5:7">
+    <row r="165" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E165" s="89"/>
       <c r="F165" s="95"/>
       <c r="G165" s="109"/>
     </row>
-    <row r="166" spans="5:7">
+    <row r="166" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E166" s="89"/>
       <c r="F166" s="95"/>
     </row>
-    <row r="167" spans="5:7">
+    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E167" s="89"/>
       <c r="F167" s="95"/>
     </row>
-    <row r="168" spans="5:7">
+    <row r="168" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E168" s="89"/>
       <c r="F168" s="95"/>
     </row>
-    <row r="169" spans="5:7">
+    <row r="169" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E169" s="89"/>
       <c r="F169" s="95"/>
     </row>
-    <row r="170" spans="5:7">
+    <row r="170" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E170" s="89"/>
       <c r="F170" s="95"/>
     </row>
-    <row r="171" spans="5:7">
+    <row r="171" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E171" s="89"/>
       <c r="F171" s="95"/>
     </row>
-    <row r="172" spans="5:7">
+    <row r="172" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E172" s="89"/>
       <c r="F172" s="95"/>
     </row>
-    <row r="173" spans="5:7">
+    <row r="173" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E173" s="89"/>
       <c r="F173" s="95"/>
     </row>
-    <row r="174" spans="5:7">
+    <row r="174" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E174" s="89"/>
       <c r="F174" s="95"/>
     </row>
-    <row r="175" spans="5:7">
+    <row r="175" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E175" s="89"/>
       <c r="F175" s="95"/>
     </row>
-    <row r="176" spans="5:7">
+    <row r="176" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E176" s="89"/>
       <c r="F176" s="95"/>
     </row>
-    <row r="177" spans="5:6">
+    <row r="177" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E177" s="89"/>
       <c r="F177" s="95"/>
     </row>
-    <row r="178" spans="5:6">
+    <row r="178" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E178" s="89"/>
       <c r="F178" s="95"/>
     </row>
-    <row r="179" spans="5:6">
+    <row r="179" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E179" s="89"/>
       <c r="F179" s="95"/>
     </row>
-    <row r="180" spans="5:6">
+    <row r="180" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E180" s="89"/>
       <c r="F180" s="95"/>
     </row>
-    <row r="181" spans="5:6">
+    <row r="181" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E181" s="89"/>
       <c r="F181" s="95"/>
     </row>
-    <row r="182" spans="5:6">
+    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E182" s="89"/>
       <c r="F182" s="95"/>
     </row>
-    <row r="183" spans="5:6">
+    <row r="183" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E183" s="89"/>
       <c r="F183" s="95"/>
     </row>
-    <row r="184" spans="5:6">
+    <row r="184" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E184" s="89"/>
       <c r="F184" s="95"/>
     </row>
-    <row r="185" spans="5:6">
+    <row r="185" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E185" s="89"/>
       <c r="F185" s="95"/>
     </row>
-    <row r="186" spans="5:6">
+    <row r="186" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E186" s="89"/>
       <c r="F186" s="95"/>
     </row>
-    <row r="187" spans="5:6">
+    <row r="187" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E187" s="89"/>
       <c r="F187" s="95"/>
     </row>
-    <row r="188" spans="5:6">
+    <row r="188" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E188" s="89"/>
       <c r="F188" s="95"/>
     </row>
-    <row r="189" spans="5:6">
+    <row r="189" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E189" s="89"/>
       <c r="F189" s="95"/>
     </row>
-    <row r="190" spans="5:6">
+    <row r="190" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E190" s="89"/>
       <c r="F190" s="95"/>
     </row>
-    <row r="191" spans="5:6">
+    <row r="191" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E191" s="89"/>
       <c r="F191" s="95"/>
     </row>
-    <row r="192" spans="5:6">
+    <row r="192" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E192" s="89"/>
       <c r="F192" s="95"/>
     </row>
